--- a/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.23.xlsx
+++ b/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\发送表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80922A-E63A-4CDE-A276-CFDEA56F23CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445E67D-3291-416E-B2D4-CFD395E61848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15504" windowWidth="21000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15960" windowWidth="21000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -142,11 +142,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">供电局数据没有更新，对标数据为12月13日数据 </t>
+    <t>2018.12.28</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2018.12.28</t>
+    <t xml:space="preserve">供电局数据没有更新，对标数据为12月19日数据 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -517,6 +517,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,9 +547,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,18 +590,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:XFB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -886,16 +886,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:13 16382:16382" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -918,7 +918,7 @@
       <c r="XFB6" s="1"/>
     </row>
     <row r="7" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -933,7 +933,7 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -974,7 +974,7 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:13 16382:16382" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1000,10 +1000,10 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9">
-        <v>5.061186771335711</v>
+        <v>-1.8688341957107326</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -1023,36 +1023,36 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="9">
-        <v>41.84806438682854</v>
+        <v>24.143336327993396</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9">
-        <v>708.90493401442018</v>
+        <v>691.2002059555839</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1060,29 +1060,29 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1091,78 +1091,78 @@
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="30"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -1175,12 +1175,12 @@
       <c r="E25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -1190,54 +1190,54 @@
       <c r="E26" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="14" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="14" t="s">
         <v>27</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="14" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="14" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="14" t="s">
         <v>30</v>
       </c>
@@ -1315,25 +1315,20 @@
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="D29:G29"/>
@@ -1347,6 +1342,11 @@
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="G16:H27"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
